--- a/diary/2017-4-24(L).xlsx
+++ b/diary/2017-4-24(L).xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
         <v>6.4</v>
       </c>
       <c r="F4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
         <v>6.4</v>
       </c>
       <c r="F8" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
       </c>
       <c r="F18" s="1">
         <f>SUM(F2:F17)</f>
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
